--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3805.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3805.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.801289233099114</v>
+        <v>2.851650714874268</v>
       </c>
       <c r="B1">
-        <v>2.106351256034848</v>
+        <v>7.223989009857178</v>
       </c>
       <c r="C1">
-        <v>2.71079193619663</v>
+        <v>5.801651954650879</v>
       </c>
       <c r="D1">
-        <v>4.264562628447333</v>
+        <v>2.229875564575195</v>
       </c>
       <c r="E1">
-        <v>0.7734358339335936</v>
+        <v>1.406411647796631</v>
       </c>
     </row>
   </sheetData>
